--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T23:11:23+00:00</t>
+    <t>2024-07-08T16:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:31:04+00:00</t>
+    <t>2024-07-11T20:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T20:02:03+00:00</t>
+    <t>2024-07-15T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T14:16:39+00:00</t>
+    <t>2024-07-30T19:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T19:47:38+00:00</t>
+    <t>2024-08-08T16:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1172,17 +1172,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.9296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1191,24 +1191,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="87.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.63671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="35.6953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="188.46875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="161.578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -260,13 +260,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}grp-1:Can only have members if group is "actual" {member.empty() or (actual = true)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}grp-1:Can only have members if group is "actual" {member.empty() or (actual = true)}</t>
   </si>
   <si>
     <t>Entity[determinerCode="GRP" or determinerCode="GRP_KIND"]</t>
-  </si>
-  <si>
-    <t>administrative.group</t>
   </si>
   <si>
     <t>Group.id</t>
@@ -352,7 +349,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -410,10 +407,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -454,7 +447,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -531,7 +524,7 @@
     <t>Types of resources that are part of group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/group-type|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/group-type|4.0.1</t>
   </si>
   <si>
     <t>person: ./classCode="PSN"  animal: ./classCode="ANM"  device: ./classCode="DEV"  medication: ./classCode="MMAT" and ./playedRole[isNormalRole() and classCode="THER"]  food: ./classCode="FOOD"</t>
@@ -673,10 +666,6 @@
   </si>
   <si>
     <t>Needs to be a generic mechanism for identifying what individuals can be part of a group.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>./playedRole[isNormalRole()]/participation[isNormalParticipation() and typeCode="SBJ"]/act[isNormalAct and classCode="OBS" and moodCode="EVN"]</t>
@@ -1432,15 +1421,15 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1451,28 +1440,28 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1522,13 +1511,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1545,10 +1534,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1559,25 +1548,25 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1628,19 +1617,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1651,10 +1640,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1665,28 +1654,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1736,19 +1725,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1759,10 +1748,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1773,7 +1762,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1785,16 +1774,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1820,43 +1809,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -1867,21 +1856,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1893,16 +1882,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1952,22 +1941,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -1975,14 +1964,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2001,16 +1990,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2060,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2072,10 +2061,10 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2083,14 +2072,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2109,16 +2098,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2168,7 +2157,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2180,10 +2169,10 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>20</v>
@@ -2191,14 +2180,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2211,25 +2200,25 @@
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2278,7 +2267,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2290,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2301,10 +2290,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2324,20 +2313,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2386,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2398,21 +2387,21 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2423,106 +2412,106 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2530,34 +2519,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2567,72 +2556,72 @@
         <v>20</v>
       </c>
       <c r="S13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="T13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2640,32 +2629,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2675,72 +2664,72 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2751,28 +2740,28 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2783,72 +2772,72 @@
         <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2859,29 +2848,29 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -2930,22 +2919,22 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -2953,10 +2942,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2964,34 +2953,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3040,22 +3029,22 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3063,10 +3052,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3077,28 +3066,28 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3148,19 +3137,19 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -3171,10 +3160,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3197,19 +3186,19 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3258,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3270,10 +3259,10 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -3281,10 +3270,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3295,7 +3284,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3307,13 +3296,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3364,13 +3353,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -3379,7 +3368,7 @@
         <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3387,14 +3376,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3413,16 +3402,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3472,7 +3461,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3484,10 +3473,10 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3495,14 +3484,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3515,25 +3504,25 @@
         <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3582,7 +3571,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3594,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -3605,10 +3594,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3616,10 +3605,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3631,17 +3620,17 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -3666,46 +3655,46 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -3713,10 +3702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3724,10 +3713,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3739,19 +3728,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -3776,10 +3765,10 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>20</v>
@@ -3800,22 +3789,22 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -3823,10 +3812,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3834,10 +3823,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3849,19 +3838,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -3910,22 +3899,22 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -3933,10 +3922,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3947,7 +3936,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3959,13 +3948,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4016,19 +4005,19 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -4039,10 +4028,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4065,17 +4054,17 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4124,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4133,13 +4122,13 @@
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4147,10 +4136,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4161,7 +4150,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4173,13 +4162,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4230,13 +4219,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4245,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4253,14 +4242,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4279,16 +4268,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4338,7 +4327,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4350,10 +4339,10 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4361,14 +4350,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4381,25 +4370,25 @@
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4448,7 +4437,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4460,10 +4449,10 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -4471,10 +4460,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4482,10 +4471,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4497,13 +4486,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4554,19 +4543,19 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -4577,10 +4566,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4591,7 +4580,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4603,23 +4592,23 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>20</v>
@@ -4664,19 +4653,19 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -4687,10 +4676,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4701,7 +4690,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -4713,23 +4702,23 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>20</v>
@@ -4774,19 +4763,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-group.xlsx
+++ b/StructureDefinition-research-study-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
